--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam2-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam2-Itga6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Adam2</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.375566</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>197.2278263333334</v>
+        <v>145.7087706666667</v>
       </c>
       <c r="N2">
-        <v>591.683479</v>
+        <v>437.126312</v>
       </c>
       <c r="O2">
-        <v>0.6783778564662776</v>
+        <v>0.5445232453600627</v>
       </c>
       <c r="P2">
-        <v>0.68503695276089</v>
+        <v>0.5461141113270247</v>
       </c>
       <c r="Q2">
-        <v>24.69068860823489</v>
+        <v>18.24108672139911</v>
       </c>
       <c r="R2">
-        <v>222.216197474114</v>
+        <v>164.169780492592</v>
       </c>
       <c r="S2">
-        <v>0.6783778564662776</v>
+        <v>0.3351932477096671</v>
       </c>
       <c r="T2">
-        <v>0.68503695276089</v>
+        <v>0.3855820568472526</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.375566</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>2.689053</v>
       </c>
       <c r="O3">
-        <v>0.003083057200020643</v>
+        <v>0.003349722554576428</v>
       </c>
       <c r="P3">
-        <v>0.003113321122377543</v>
+        <v>0.003359509023117945</v>
       </c>
       <c r="Q3">
         <v>0.1122129865553333</v>
@@ -638,10 +638,10 @@
         <v>1.009916878998</v>
       </c>
       <c r="S3">
-        <v>0.003083057200020643</v>
+        <v>0.002061995317118828</v>
       </c>
       <c r="T3">
-        <v>0.003113321122377543</v>
+        <v>0.002371970202313685</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.375566</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.82536200000001</v>
+        <v>51.59199533333333</v>
       </c>
       <c r="N4">
-        <v>128.476086</v>
+        <v>154.775986</v>
       </c>
       <c r="O4">
-        <v>0.1473006006102414</v>
+        <v>0.1928026748491032</v>
       </c>
       <c r="P4">
-        <v>0.1487465335432934</v>
+        <v>0.1933659624890163</v>
       </c>
       <c r="Q4">
-        <v>5.361249968297334</v>
+        <v>6.458733106452889</v>
       </c>
       <c r="R4">
-        <v>48.25124971467601</v>
+        <v>58.128597958076</v>
       </c>
       <c r="S4">
-        <v>0.1473006006102414</v>
+        <v>0.1186839226800101</v>
       </c>
       <c r="T4">
-        <v>0.1487465335432934</v>
+        <v>0.136525396422354</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,10 +732,10 @@
         <v>0.375566</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.478501</v>
+        <v>2.338518</v>
       </c>
       <c r="N5">
-        <v>16.957002</v>
+        <v>4.677036</v>
       </c>
       <c r="O5">
-        <v>0.02916235219621802</v>
+        <v>0.0087391953474509</v>
       </c>
       <c r="P5">
-        <v>0.01963241055449567</v>
+        <v>0.005843151713055659</v>
       </c>
       <c r="Q5">
-        <v>1.061412235522</v>
+        <v>0.292755950396</v>
       </c>
       <c r="R5">
-        <v>6.368473413132</v>
+        <v>1.756535702376</v>
       </c>
       <c r="S5">
-        <v>0.02916235219621802</v>
+        <v>0.005379603709928463</v>
       </c>
       <c r="T5">
-        <v>0.01963241055449567</v>
+        <v>0.004125537885325574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.375566</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.6155719715657366</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.7060466830097307</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.30642933333333</v>
+        <v>67.05398933333333</v>
       </c>
       <c r="N6">
-        <v>123.919288</v>
+        <v>201.161968</v>
       </c>
       <c r="O6">
-        <v>0.1420761335272424</v>
+        <v>0.2505851618888069</v>
       </c>
       <c r="P6">
-        <v>0.1434707820189435</v>
+        <v>0.2513172654477853</v>
       </c>
       <c r="Q6">
-        <v>5.171096813000889</v>
+        <v>8.394399519320888</v>
       </c>
       <c r="R6">
-        <v>46.539871317008</v>
+        <v>75.54959567388801</v>
       </c>
       <c r="S6">
-        <v>0.1420761335272424</v>
+        <v>0.1542532021490121</v>
       </c>
       <c r="T6">
-        <v>0.1434707820189435</v>
+        <v>0.1774417216524848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.078181</v>
+      </c>
+      <c r="H7">
+        <v>0.156362</v>
+      </c>
+      <c r="I7">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J7">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>145.7087706666667</v>
+      </c>
+      <c r="N7">
+        <v>437.126312</v>
+      </c>
+      <c r="O7">
+        <v>0.5445232453600627</v>
+      </c>
+      <c r="P7">
+        <v>0.5461141113270247</v>
+      </c>
+      <c r="Q7">
+        <v>11.39165739949066</v>
+      </c>
+      <c r="R7">
+        <v>68.349944396944</v>
+      </c>
+      <c r="S7">
+        <v>0.2093299976503956</v>
+      </c>
+      <c r="T7">
+        <v>0.1605320544797721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.078181</v>
+      </c>
+      <c r="H8">
+        <v>0.156362</v>
+      </c>
+      <c r="I8">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J8">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.896351</v>
+      </c>
+      <c r="N8">
+        <v>2.689053</v>
+      </c>
+      <c r="O8">
+        <v>0.003349722554576428</v>
+      </c>
+      <c r="P8">
+        <v>0.003359509023117945</v>
+      </c>
+      <c r="Q8">
+        <v>0.070077617531</v>
+      </c>
+      <c r="R8">
+        <v>0.420465705186</v>
+      </c>
+      <c r="S8">
+        <v>0.001287727237457601</v>
+      </c>
+      <c r="T8">
+        <v>0.0009875388208042595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.078181</v>
+      </c>
+      <c r="H9">
+        <v>0.156362</v>
+      </c>
+      <c r="I9">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J9">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>51.59199533333333</v>
+      </c>
+      <c r="N9">
+        <v>154.775986</v>
+      </c>
+      <c r="O9">
+        <v>0.1928026748491032</v>
+      </c>
+      <c r="P9">
+        <v>0.1933659624890163</v>
+      </c>
+      <c r="Q9">
+        <v>4.033513787155333</v>
+      </c>
+      <c r="R9">
+        <v>24.201082722932</v>
+      </c>
+      <c r="S9">
+        <v>0.07411875216909307</v>
+      </c>
+      <c r="T9">
+        <v>0.05684056606666234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.078181</v>
+      </c>
+      <c r="H10">
+        <v>0.156362</v>
+      </c>
+      <c r="I10">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J10">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.338518</v>
+      </c>
+      <c r="N10">
+        <v>4.677036</v>
+      </c>
+      <c r="O10">
+        <v>0.0087391953474509</v>
+      </c>
+      <c r="P10">
+        <v>0.005843151713055659</v>
+      </c>
+      <c r="Q10">
+        <v>0.182827675758</v>
+      </c>
+      <c r="R10">
+        <v>0.7313107030320001</v>
+      </c>
+      <c r="S10">
+        <v>0.003359591637522437</v>
+      </c>
+      <c r="T10">
+        <v>0.001717613827730086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.078181</v>
+      </c>
+      <c r="H11">
+        <v>0.156362</v>
+      </c>
+      <c r="I11">
+        <v>0.3844280284342634</v>
+      </c>
+      <c r="J11">
+        <v>0.2939533169902694</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>67.05398933333333</v>
+      </c>
+      <c r="N11">
+        <v>201.161968</v>
+      </c>
+      <c r="O11">
+        <v>0.2505851618888069</v>
+      </c>
+      <c r="P11">
+        <v>0.2513172654477853</v>
+      </c>
+      <c r="Q11">
+        <v>5.242347940069333</v>
+      </c>
+      <c r="R11">
+        <v>31.454087640416</v>
+      </c>
+      <c r="S11">
+        <v>0.09633195973979473</v>
+      </c>
+      <c r="T11">
+        <v>0.07387554379530049</v>
       </c>
     </row>
   </sheetData>
